--- a/course/Badge.xlsx
+++ b/course/Badge.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unhnewhaven-my.sharepoint.com/personal/dtand2_unh_newhaven_edu/Documents/Desktop/DAE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/devanshitandel/Desktop/course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="238" documentId="8_{C27723FE-8AD0-4D05-824B-F598851CFF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{243C4641-E4AE-4DD0-AF2C-1EC1DF7D4AEC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41004A83-E9B9-AD43-A139-4912A6227F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{176399DE-876E-4A76-919C-28274772DA69}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" activeTab="2" xr2:uid="{176399DE-876E-4A76-919C-28274772DA69}"/>
   </bookViews>
   <sheets>
     <sheet name="API 1" sheetId="4" r:id="rId1"/>
@@ -490,10 +490,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -504,36 +504,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -561,12 +544,29 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,10 +583,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -912,9 +908,9 @@
       <selection activeCell="A7" sqref="A7:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -928,7 +924,7 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -944,14 +940,14 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
       <c r="F3" s="10" t="s">
         <v>4</v>
       </c>
@@ -960,159 +956,154 @@
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
     </row>
-    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="6" t="s">
+    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="6" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="6" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="6" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="6" t="s">
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="6" t="s">
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="7" t="s">
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="6" t="s">
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="6" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="7" t="s">
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A12:E13"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="F11:J11"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F2:J2"/>
@@ -1121,10 +1112,15 @@
     <mergeCell ref="A3:E4"/>
     <mergeCell ref="A5:E6"/>
     <mergeCell ref="A7:E11"/>
-    <mergeCell ref="F12:J12"/>
     <mergeCell ref="F4:J4"/>
     <mergeCell ref="F5:J5"/>
     <mergeCell ref="F6:J6"/>
+    <mergeCell ref="A12:E13"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="F12:J12"/>
     <mergeCell ref="F13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1139,26 +1135,26 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="5"/>
-    <col min="2" max="2" width="29.88671875" style="5" customWidth="1"/>
-    <col min="3" max="5" width="8.88671875" style="5"/>
-    <col min="6" max="6" width="18.109375" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="8.83203125" style="5"/>
+    <col min="2" max="2" width="29.83203125" style="5" customWidth="1"/>
+    <col min="3" max="5" width="8.83203125" style="5"/>
+    <col min="6" max="6" width="18.1640625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1170,144 +1166,155 @@
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="7" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="7" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="7" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="7" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="7" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="7" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="7" t="s">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B12"/>
@@ -1318,17 +1325,6 @@
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1336,271 +1332,6061 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAB315B2-0275-4776-9408-8056BE3185C7}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F1181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="129" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:F23"/>
+    <sheetView tabSelected="1" zoomScale="129" workbookViewId="0">
+      <selection activeCell="I1168" sqref="I1168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="35" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="33" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="33" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="33" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="33" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="27" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="30" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="33" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21" t="s">
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
+    </row>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="14" t="s">
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="32"/>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="21" t="s">
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
+    </row>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
+    </row>
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="33" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="33" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="33" t="s">
+      <c r="B18" s="19"/>
+      <c r="C18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="14" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="14" t="s">
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
+    </row>
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="14" t="s">
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
+    </row>
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="14" t="s">
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
+    </row>
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="25" t="s">
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
+    </row>
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B551">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B566">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B570">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B571">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B574">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B576">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B577">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B579">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B580">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B581">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B582">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B583">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B584">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B585">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B586">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B587">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B588">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B590">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B591">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B592">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B593">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B594">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B596">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B597">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B598">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B599">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B600">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B601">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B602">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B603">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B604">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B605">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B606">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B607">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B608">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B609">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B610">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B611">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B612">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B613">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B614">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B615">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B616">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B617">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B619">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B620">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B621">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B622">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B623">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B624">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B625">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B626">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B627">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B628">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B629">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B630">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B631">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B632">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B633">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B634">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B635">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B636">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B637">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B638">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B639">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B640">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B641">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B642">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B643">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B644">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B645">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B646">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B647">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B648">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B649">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B650">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B651">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B652">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B653">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B654">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B655">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B656">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B657">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B658">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B659">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B660">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B661">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B662">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B663">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B664">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B665">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B666">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B667">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B668">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B669">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B670">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B671">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B672">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B673">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B674">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B675">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B676">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B677">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B678">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B679">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B680">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B681">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B682">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B683">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B684">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B685">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B686">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B687">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B688">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B689">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B690">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B691">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B692">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B693">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B694">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B695">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B696">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B697">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B698">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B699">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B700">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B701">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B702">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B703">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B704">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B705">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B706">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B707">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="708" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B708">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B709">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B710">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B711">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B712">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B713">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B714">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B715">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B716">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B717">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B718">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B719">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B720">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B721">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B722">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B723">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B724">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B725">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B726">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B727">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="728" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B728">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B729">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B730">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B731">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B732">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B733">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B734">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B735">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B736">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B737">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B738">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B739">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B740">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B741">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B742">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B743">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B744">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B745">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B746">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B747">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B748">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B749">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B750">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B751">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B752">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B753">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B754">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B755">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B756">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B757">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B758">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B759">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="760" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B760">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B761">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B762">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B763">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B764">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B765">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B766">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B767">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B768">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B769">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B770">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B771">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="772" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B772">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B773">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B774">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B775">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B776">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B777">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B778">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B779">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B780">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B781">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B782">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B783">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B784">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B785">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B786">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B787">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B788">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B789">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B790">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B791">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B792">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B793">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="794" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B794">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B795">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="796" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B796">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B797">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B798">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B799">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="800" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B800">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B801">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="802" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B802">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B803">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="804" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B804">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="805" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B805">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="806" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B806">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="807" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B807">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="808" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B808">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B809">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="810" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B810">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B811">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="812" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B812">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="813" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B813">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B814">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="815" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B815">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="816" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B816">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="817" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B817">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="818" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B818">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="819" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B819">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="820" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B820">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B821">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B822">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B823">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="824" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B824">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="825" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B825">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="826" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B826">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B827">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="828" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B828">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="829" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B829">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="830" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B830">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B831">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="832" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B832">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B833">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="834" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B834">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B835">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="836" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B836">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B837">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="838" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B838">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="839" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B839">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="840" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B840">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="841" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B841">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="842" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B842">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B843">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B844">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="845" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B845">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B846">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B847">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="848" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B848">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="849" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B849">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="850" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B850">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="851" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B851">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="852" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B852">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="853" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B853">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="854" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B854">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="855" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B855">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="856" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B856">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="857" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B857">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="858" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B858">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="859" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B859">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="860" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B860">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B861">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="862" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B862">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B863">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B864">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="865" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B865">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="866" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B866">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B867">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="868" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B868">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="869" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B869">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="870" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B870">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="871" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B871">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B872">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B873">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B874">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="875" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B875">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="876" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B876">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="877" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B877">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="878" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B878">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B879">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="880" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B880">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="881" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B881">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="882" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B882">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="883" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B883">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="884" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B884">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="885" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B885">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="886" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B886">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="887" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B887">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="888" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B888">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="889" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B889">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="890" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B890">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="891" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B891">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B892">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B893">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="894" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B894">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="895" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B895">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="896" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B896">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="897" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B897">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="898" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B898">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="899" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B899">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="900" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B900">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="901" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B901">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="902" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B902">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="903" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B903">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="904" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B904">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="905" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B905">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="906" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B906">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="907" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B907">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="908" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B908">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="909" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B909">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="910" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B910">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="911" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B911">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="912" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B912">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="913" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B913">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="914" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B914">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="915" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B915">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B916">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="917" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B917">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="918" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B918">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="919" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B919">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="920" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B920">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="921" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B921">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="922" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B922">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="923" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B923">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="924" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B924">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="925" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B925">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="926" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B926">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="927" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B927">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="928" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B928">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="929" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B929">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="930" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B930">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="931" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B931">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="932" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B932">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="933" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B933">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="934" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B934">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="935" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B935">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="936" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B936">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="937" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B937">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="938" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B938">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="939" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B939">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="940" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B940">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="941" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B941">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="942" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B942">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="943" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B943">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="944" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B944">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="945" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B945">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="946" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B946">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="947" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B947">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="948" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B948">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="949" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B949">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="950" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B950">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="951" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B951">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="952" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B952">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="953" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B953">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="954" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B954">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="955" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B955">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="956" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B956">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="957" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B957">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="958" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B958">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="959" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B959">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="960" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B960">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="961" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B961">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="962" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B962">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="963" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B963">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="964" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B964">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="965" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B965">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="966" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B966">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="967" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B967">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="968" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B968">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="969" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B969">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="970" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B970">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="971" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B971">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="972" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B972">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="973" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B973">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="974" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B974">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="975" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B975">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="976" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B976">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="977" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B977">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="978" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B978">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="979" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B979">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="980" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B980">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="981" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B981">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="982" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B982">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="983" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B983">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="984" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B984">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="985" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B985">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="986" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B986">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="987" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B987">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="988" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B988">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="989" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B989">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="990" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B990">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="991" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B991">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="992" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B992">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="993" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B993">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="994" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B994">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="995" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B995">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="996" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B996">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="997" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B997">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="998" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B998">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="999" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B999">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1000" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1000">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1001" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1001">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1002" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1002">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1003" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1003">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1004" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1005" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1005">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1006" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1006">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1007" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1007">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1008" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1008">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1009" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1009">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1010" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1010">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1011" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1011">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1012" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1012">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1013" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1013">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1014" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1014">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1015" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1015">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1016" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1016">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1017" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1017">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1018" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1018">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1019" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1019">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1020" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1020">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1021" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1021">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1022" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1022">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1023" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1023">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1024" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1024">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1025" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1025">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1026" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1026">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1027" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1027">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1028" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1028">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1029" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1029">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1030" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1030">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1031" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1031">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1032" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1032">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1033" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1033">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1034" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1034">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1035" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1035">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1036" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1036">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1037" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1037">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1038" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1038">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1039" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1039">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1040" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1040">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1041" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1041">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1042" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1042">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1043" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1043">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1044" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1044">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1045" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1045">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1046" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1046">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1047" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1047">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1048">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1049" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1049">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1050" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1050">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1051" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1051">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1052" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1052">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1053" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1053">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1054" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1054">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1055" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1055">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1056" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1056">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1057" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1057">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1058" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1058">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1059" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1059">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1060" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1060">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1061" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1061">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1062" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1062">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1063" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1063">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1064" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1064">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1065" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1065">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1066" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1066">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1067" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1067">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1068" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1068">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1069" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1069">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1070" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1070">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1071" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1071">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1072" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1072">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1073" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1073">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1074" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1074">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1075" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1075">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1076" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1076">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1077" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1077">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1078" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1078">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1079" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1079">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1080" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1080">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1081" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1081">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1082" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1082">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1083" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1083">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1084" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1084">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1085" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1085">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1086" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1086">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1087" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1087">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1088" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1088">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1089" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1089">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1090" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1090">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1091" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1091">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1092" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1092">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1093" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1093">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1094" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1094">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1095" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1095">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1096" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1096">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1097" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1097">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1098" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1098">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1099" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1099">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1100" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1101" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1102" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1103" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1104" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1105" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1106" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1107" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1108" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1109" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1110" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1111" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1112" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1113" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1114" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1115" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1116" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1117" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1118" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1119" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1120" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1121" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1122" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1123" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1124" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1125" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1126" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1127" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1128" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1129" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1130" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1131" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1132" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1133" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1134" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1135" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1136" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1137" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1138" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1139" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1140" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1141" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1142" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1143" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1144" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1145" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1146" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1147" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1148" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1149" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1150" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1151" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1152" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1153" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1154" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1155" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1156" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1157" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1158" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1159" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1160" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1161" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1162" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1163" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1164" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1165" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1166" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1167" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1168" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1169" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1170" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1171" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1172" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1173" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1174" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1175" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1176" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1177" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1178" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1179" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1180" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1181" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1181">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A3:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A16:B17"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="A18:B23"/>
     <mergeCell ref="C9:F9"/>
@@ -1617,13 +7403,13 @@
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A3:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
